--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\YourAnswer\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\WE\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B007E0-2559-4622-82E4-93AEA8C6F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F4A864-7F75-4C4D-8A4B-F7CB436F50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="672" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1188" windowWidth="22692" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Game</t>
+  </si>
+  <si>
+    <t>ChatInfo</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -740,6 +743,23 @@
       </c>
       <c r="G15" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
